--- a/biology/Zoologie/Berger_du_Karst/Berger_du_Karst.xlsx
+++ b/biology/Zoologie/Berger_du_Karst/Berger_du_Karst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le berger du Karst, est un chien de berger originaire de Slovénie qui existe depuis plusieurs siècles. La Fédération cynologique internationale le reconnaît sous le nom de Kraski Ovcar.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chien de berger du Karst est un chien de taille
 moyenne, harmonieux, robuste, doté d’une musculature bien développée
@@ -546,7 +560,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce chien a probablement, suivi la tribu des Illyriens dans sa migration à travers l'Istrie et les îles dalmates.
 La race et son standard ont été reconnus officiellement le 2 juin 1939 sous le nom de "Berger d'Illyrie".
@@ -579,7 +595,9 @@
           <t>Caractère/Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Berger du massif du Karst est un chien de berger par
 excellence et un bon gardien ; aujourd’hui, il est de plus en plus souvent
